--- a/hd.xlsx
+++ b/hd.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t/>
   </si>
@@ -50,10 +50,40 @@
     <t>HD01</t>
   </si>
   <si>
+    <t>2022-05-26</t>
+  </si>
+  <si>
     <t>NV02</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>HD02</t>
+  </si>
+  <si>
+    <t>TV01</t>
+  </si>
+  <si>
+    <t>HD04</t>
+  </si>
+  <si>
+    <t>HD05</t>
+  </si>
+  <si>
+    <t>2022-05-28</t>
+  </si>
+  <si>
+    <t>HD06</t>
+  </si>
+  <si>
+    <t>PGG04</t>
+  </si>
+  <si>
+    <t>HD07</t>
+  </si>
+  <si>
+    <t>2022-12-07</t>
   </si>
 </sst>
 </file>
@@ -98,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A3:I5"/>
+  <dimension ref="A3:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -142,14 +172,14 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="n">
-        <v>44707.0</v>
+      <c r="B5" t="s">
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>22000.0</v>
@@ -161,9 +191,154 @@
         <v>22000.0</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" ht="20.0" customHeight="true">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52000.0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>47000.0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5000.0</v>
+      </c>
+    </row>
+    <row r="7" ht="20.0" customHeight="true">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>22000.0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8" ht="20.0" customHeight="true">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="n">
+        <v>124000.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>124000.0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" ht="20.0" customHeight="true">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>115000.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>110000.0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10" ht="20.0" customHeight="true">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6000.0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="n">
         <v>0.0</v>
       </c>
     </row>
